--- a/Report Generation using Python/Output/all_sheets.xlsx
+++ b/Report Generation using Python/Output/all_sheets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f7b8af3508b5419/Documents/Coding/KunaalDSM/Report Generation using Python/Output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2FC27CF8D8C5586E75A301D07D6A9425422932F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE670C59-B5EE-4BC9-B27C-454D568D666F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEO" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
     <sheet name="CSO_Sustainability" sheetId="10" r:id="rId10"/>
     <sheet name="CDO" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -164,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +234,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +286,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -306,6 +320,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -340,9 +355,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,14 +531,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -556,10 +576,10 @@
         <v>0.13</v>
       </c>
       <c r="F2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -579,7 +599,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -599,7 +619,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -610,7 +630,7 @@
         <v>0.93</v>
       </c>
       <c r="D5">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="E5">
         <v>0.95</v>
@@ -619,7 +639,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,7 +659,7 @@
         <v>246971</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -659,7 +679,7 @@
         <v>101500</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -685,14 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,18 +729,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E2">
         <v>0.05</v>
@@ -729,7 +749,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -749,7 +769,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -775,14 +795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -819,7 +839,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -830,16 +850,16 @@
         <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="E3">
         <v>0.95</v>
       </c>
       <c r="F3">
-        <v>0.975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -865,14 +885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -897,7 +917,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D2">
         <v>8.6</v>
@@ -906,10 +926,10 @@
         <v>8.4</v>
       </c>
       <c r="F2">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -929,27 +949,27 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C4">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="D4">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E4">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F4">
         <v>4.72</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -975,14 +995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1013,13 +1033,13 @@
         <v>0.27</v>
       </c>
       <c r="E2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1039,7 +1059,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1065,14 +1085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1109,12 +1129,12 @@
         <v>43.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="C3">
         <v>5.36</v>
@@ -1129,7 +1149,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1160,7 @@
         <v>17.72</v>
       </c>
       <c r="D4">
-        <v>19.49</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="E4">
         <v>21.44</v>
@@ -1155,14 +1175,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1199,7 +1219,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1219,7 +1239,7 @@
         <v>16250</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1236,10 +1256,10 @@
         <v>0.998</v>
       </c>
       <c r="F4">
-        <v>0.9990000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1256,10 +1276,10 @@
         <v>1.2</v>
       </c>
       <c r="F5">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1270,10 +1290,10 @@
         <v>3.8</v>
       </c>
       <c r="D6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F6">
         <v>4.7</v>
@@ -1285,14 +1305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1349,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1346,10 +1366,10 @@
         <v>0.26</v>
       </c>
       <c r="F3">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1375,14 +1395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,12 +1419,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C2">
         <v>0.06</v>
@@ -1419,7 +1439,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1439,12 +1459,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -1465,14 +1485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1529,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1529,24 +1549,24 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4">
-        <v>0.0275</v>
+        <v>2.75E-2</v>
       </c>
       <c r="C4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>0.0225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="E4">
         <v>0.02</v>
       </c>
       <c r="F4">
-        <v>0.0175</v>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1555,14 +1575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1599,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
